--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860"/>
@@ -214,8 +214,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -333,19 +333,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -403,26 +422,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,10 +547,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +581,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,378 +756,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="18" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" customHeight="1">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" customHeight="1">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" customHeight="1">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" customHeight="1">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" customHeight="1">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" customHeight="1">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" customHeight="1">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" customHeight="1">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="21" customHeight="1">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="21" customHeight="1">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="21" customHeight="1">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1">
+      <c r="A19" s="12">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1">
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1">
+      <c r="A21" s="12">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1">
+      <c r="A22" s="12">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>11</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>12</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>13</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>14</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>15</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>16</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="3">
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.68" right="0.32" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -64,29 +64,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">生产日期
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,6 +185,32 @@
   </si>
   <si>
     <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -333,13 +336,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,38 +431,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,13 +776,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
@@ -756,55 +802,55 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="21"/>
+      <c r="G1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>6</v>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>1</v>
@@ -818,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -832,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -846,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -860,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -874,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -888,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -902,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -916,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -930,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -943,8 +989,8 @@
       <c r="A14" s="13">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>7</v>
+      <c r="B14" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -957,8 +1003,8 @@
       <c r="A15" s="13">
         <v>11</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>7</v>
+      <c r="B15" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -971,8 +1017,8 @@
       <c r="A16" s="13">
         <v>12</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>7</v>
+      <c r="B16" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -985,8 +1031,8 @@
       <c r="A17" s="13">
         <v>13</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>7</v>
+      <c r="B17" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -999,8 +1045,8 @@
       <c r="A18" s="13">
         <v>14</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>7</v>
+      <c r="B18" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1013,8 +1059,8 @@
       <c r="A19" s="13">
         <v>15</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>7</v>
+      <c r="B19" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1027,8 +1073,8 @@
       <c r="A20" s="13">
         <v>16</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>7</v>
+      <c r="B20" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1042,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1056,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1066,16 +1112,18 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27" t="s">
+      <c r="A23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -64,57 +64,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,8 +166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +389,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -454,15 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -530,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,10 +511,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,7 +545,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,14 +720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
@@ -793,7 +740,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -802,55 +749,55 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="G1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>10</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>1</v>
@@ -859,13 +806,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:8" ht="21" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="12"/>
@@ -873,13 +816,9 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" spans="1:8" ht="21" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="12"/>
@@ -887,13 +826,9 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:8" ht="21" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
@@ -901,13 +836,9 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:8" ht="21" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="12"/>
@@ -915,13 +846,9 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="9" spans="1:8" ht="21" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="12"/>
@@ -929,13 +856,9 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:8" ht="21" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="12"/>
@@ -943,13 +866,9 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:8" ht="21" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="12"/>
@@ -957,13 +876,9 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="12" spans="1:8" ht="21" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
@@ -971,13 +886,9 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="13" spans="1:8" ht="21" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="12"/>
@@ -985,13 +896,9 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>6</v>
-      </c>
+    <row r="14" spans="1:8" ht="21" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="12"/>
@@ -999,13 +906,9 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>11</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>6</v>
-      </c>
+    <row r="15" spans="1:8" ht="21" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="12"/>
@@ -1013,13 +916,9 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>12</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>6</v>
-      </c>
+    <row r="16" spans="1:8" ht="21" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="12"/>
@@ -1027,13 +926,9 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>13</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>6</v>
-      </c>
+    <row r="17" spans="1:10" ht="21" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="12"/>
@@ -1041,13 +936,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>14</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>6</v>
-      </c>
+    <row r="18" spans="1:10" ht="21" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="12"/>
@@ -1055,13 +946,9 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>15</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>6</v>
-      </c>
+    <row r="19" spans="1:10" ht="21" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="12"/>
@@ -1069,13 +956,9 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>16</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>6</v>
-      </c>
+    <row r="20" spans="1:10" ht="21" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="12"/>
@@ -1083,13 +966,9 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="21" spans="1:10" ht="21" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="12"/>
@@ -1097,13 +976,9 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="22" spans="1:10" ht="21" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="12"/>
@@ -1111,23 +986,23 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+    <row r="23" spans="1:10" ht="21" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>15</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="21" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1137,7 +1012,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="21" customHeight="1">
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EE9CEE7-C00F-694B-8AFA-C480CF723772}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,12 +167,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -328,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,9 +384,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -421,7 +419,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,7 +435,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,9 +509,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,6 +561,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,27 +754,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="13" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -749,38 +783,38 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="29.25" customHeight="1">
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -806,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1">
+    <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -816,210 +850,40 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+    <row r="7" spans="1:10" ht="21" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="F3:H3"/>
   </mergeCells>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EE9CEE7-C00F-694B-8AFA-C480CF723772}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{924CA170-CBC5-B24D-B6A0-6246B85EF0FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,12 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -758,7 +752,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -783,45 +777,45 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -830,7 +824,7 @@
       <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -842,25 +836,25 @@
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="18" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="13"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R10 吹膜工序废品记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{924CA170-CBC5-B24D-B6A0-6246B85EF0FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A105ED0A-CDA7-D443-8341-D0931E208138}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,9 +378,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +752,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -777,36 +777,36 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="25" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="14" t="s">
@@ -845,16 +845,16 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="13"/>
